--- a/s1cDNASample/s1CDNASample_BrownH_12.19.19.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_12.19.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">12.19.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -281,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1188,6 +1188,10 @@
         <v>17</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/s1cDNASample/s1CDNASample_BrownH_12.19.19.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_12.19.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="42">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -155,8 +152,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -243,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,6 +259,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,7 +286,7 @@
   <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,11 +367,11 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -396,7 +398,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -405,7 +407,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -413,11 +415,11 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +430,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -437,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -445,11 +447,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -469,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -477,11 +479,11 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -501,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -509,11 +511,11 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -533,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -541,11 +543,11 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -565,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -573,11 +575,11 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -597,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -605,11 +607,11 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -629,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -637,11 +639,11 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -661,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -669,11 +671,11 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -693,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -701,11 +703,11 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -725,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -733,11 +735,11 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -757,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -765,11 +767,11 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -789,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -797,11 +799,11 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -821,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -829,11 +831,11 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -853,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -861,11 +863,11 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -885,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -893,11 +895,11 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -917,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
@@ -925,11 +927,11 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -949,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
@@ -957,11 +959,11 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -981,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>14</v>
@@ -989,11 +991,11 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1013,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>14</v>
@@ -1021,11 +1023,11 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1045,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1053,11 +1055,11 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -1077,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
@@ -1085,11 +1087,11 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1109,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>14</v>
@@ -1117,11 +1119,11 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -1141,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>14</v>
@@ -1149,11 +1151,11 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1173,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1181,11 +1183,11 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/s1cDNASample/s1CDNASample_BrownH_12.19.19.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_12.19.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CED1CB-468F-B449-B339-73BD2F3D4895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9283B9E1-A3F8-FA46-828B-DF55273D824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="17">
   <si>
     <t>rnaDate</t>
   </si>
@@ -73,15 +73,15 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +135,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,8 +534,8 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
-        <v>0</v>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -582,8 +582,8 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
-        <v>0</v>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -614,8 +614,8 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
-        <v>0</v>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -646,8 +646,8 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <v>0</v>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -678,8 +678,8 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <v>0</v>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -710,8 +710,8 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <v>0</v>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -742,8 +742,8 @@
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <v>0</v>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -774,8 +774,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <v>0</v>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -806,8 +806,8 @@
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <v>0</v>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -838,8 +838,8 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
-        <v>0</v>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -870,8 +870,8 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
-        <v>0</v>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -902,8 +902,8 @@
       <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <v>0</v>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -934,8 +934,8 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <v>0</v>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -966,8 +966,8 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <v>0</v>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -998,8 +998,8 @@
       <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
-        <v>0</v>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1030,8 +1030,8 @@
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
-        <v>0</v>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1062,8 +1062,8 @@
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
-        <v>0</v>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1094,8 +1094,8 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
-        <v>0</v>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -1126,8 +1126,8 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
-        <v>0</v>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -1158,8 +1158,8 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
-        <v>0</v>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -1190,8 +1190,8 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
-        <v>0</v>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -1222,8 +1222,8 @@
       <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <v>0</v>
+      <c r="I23" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -1254,8 +1254,8 @@
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <v>0</v>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1286,8 +1286,8 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <v>0</v>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1318,8 +1318,8 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <v>0</v>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1350,12 +1350,27 @@
       <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
-        <v>0</v>
+      <c r="I27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
